--- a/原型.xlsx
+++ b/原型.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issoh\Desktop\issoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2560B06B-1CC4-4A1E-A67B-DE10CE4BF4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A1B62-19A9-4F74-B4CF-09FFF8E1D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prototype" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="2" r:id="rId2"/>
-    <sheet name="process" sheetId="3" r:id="rId3"/>
+    <sheet name="出勤管理process" sheetId="3" r:id="rId3"/>
+    <sheet name="月次決算process" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="137">
   <si>
     <t xml:space="preserve"> dept_id        </t>
   </si>
@@ -394,10 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>employee_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員情報</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -477,9 +474,6 @@
     <t>sick_leave</t>
   </si>
   <si>
-    <t xml:space="preserve">paid_time_off   </t>
-  </si>
-  <si>
     <t>create_time</t>
   </si>
   <si>
@@ -522,9 +516,6 @@
     <t>出勤日次',</t>
   </si>
   <si>
-    <t>振替休',</t>
-  </si>
-  <si>
     <t>遅刻',</t>
   </si>
   <si>
@@ -535,9 +526,6 @@
   </si>
   <si>
     <t>病欠',</t>
-  </si>
-  <si>
-    <t>有給休暇',</t>
   </si>
   <si>
     <t>作成時間',</t>
@@ -621,9 +609,91 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1社員</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
+    <t>onboarding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振替休',</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有給休暇',</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">paid_time_off   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adjustable_breaks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調整可能なブレーク</t>
+  </si>
+  <si>
+    <t>sys_employee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤管理</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祝日管理</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成時間</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -780,10 +850,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,17 +878,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,6 +1101,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862D1570-EFDC-4B01-8603-48EF4094A5CA}"/>
@@ -1089,69 +1163,6 @@
             </a:rPr>
             <a:t>新規勤務表</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="二等辺三角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4E8F4A-B6AA-FC6D-0DD5-86D86D068B98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1476375" y="2228850"/>
-          <a:ext cx="142875" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1356,9 +1367,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>年月</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1586,15 +1606,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1609,30 +1629,32 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2847975" y="1066800"/>
+          <a:off x="2809875" y="1076325"/>
           <a:ext cx="142875" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1886,6 +1908,1033 @@
               </a:solidFill>
             </a:rPr>
             <a:t>月勤務登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="二等辺三角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42445EA-1316-4F86-A7CA-4F4CDD1C1318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1485900" y="2247900"/>
+          <a:ext cx="142875" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE92F32-D37C-4961-9E3D-93F726CD40D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="2943225"/>
+          <a:ext cx="12773025" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCB2E4F-1C1B-4359-9640-257B4C355C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="5534025"/>
+          <a:ext cx="12773025" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD6AF1E-09A9-432C-A415-C987CB9B765D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="5781675"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B6927A-4BE6-40F6-A5E8-8D54801EB3C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="5810249"/>
+          <a:ext cx="1752600" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="二等辺三角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902DDFEF-F696-400F-8F3A-90CE14CE7001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2809875" y="5915025"/>
+          <a:ext cx="142875" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3312F9-7BD4-4C4F-BA3C-8285D39CCCB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343275" y="5800725"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67AAE22-4EAC-4952-89F9-F4F417B9A371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="5810249"/>
+          <a:ext cx="1752600" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="二等辺三角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CDE02F-6EC5-4FF0-A0FE-C801E5DAA872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5562600" y="5915025"/>
+          <a:ext cx="142875" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0215B4-8646-4D5B-A56D-F87F6DC415B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="5781674"/>
+          <a:ext cx="514350" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8765392F-BD18-41B7-966D-A830E3D0A403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6877049" y="5781674"/>
+          <a:ext cx="809625" cy="314326"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リセット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C4071A-56D4-4BBC-9724-073ADDCE36F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="6534150"/>
+          <a:ext cx="12773025" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C37A2A-475D-413C-8153-20FB3362C325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="6791325"/>
+          <a:ext cx="781051" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新祝日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="四角形: 角を丸くする 30">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E43BDA-2B8B-4C48-9EEF-4D2F2089E8EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685924" y="6800850"/>
+          <a:ext cx="809625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規祝日</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5946,14 +6995,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5965,8 +7046,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5979,13 +7060,13 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -6029,13 +7110,13 @@
         <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AB4" t="s">
         <v>38</v>
@@ -6073,10 +7154,10 @@
         <v>21</v>
       </c>
       <c r="X5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB5" t="s">
         <v>21</v>
@@ -6090,16 +7171,16 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
@@ -6117,13 +7198,13 @@
         <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="s">
         <v>53</v>
@@ -6139,6 +7220,15 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
       <c r="K7" t="s">
         <v>24</v>
       </c>
@@ -6149,13 +7239,13 @@
         <v>43</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB7" t="s">
         <v>67</v>
@@ -6168,6 +7258,15 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
@@ -6178,13 +7277,13 @@
         <v>63</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AB8" t="s">
         <v>68</v>
@@ -6207,13 +7306,13 @@
         <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:31">
@@ -6230,13 +7329,13 @@
         <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:31">
@@ -6257,13 +7356,13 @@
       </c>
       <c r="P11" s="1"/>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:31">
@@ -6274,19 +7373,19 @@
         <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s">
         <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:31">
@@ -6307,13 +7406,13 @@
       </c>
       <c r="P13" s="1"/>
       <c r="V13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="2:31">
@@ -6330,13 +7429,13 @@
         <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:31">
@@ -6353,13 +7452,13 @@
         <v>65</v>
       </c>
       <c r="V15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:31">
@@ -6367,22 +7466,22 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M16" t="s">
         <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:25">
@@ -6390,13 +7489,13 @@
         <v>11</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:25">
@@ -6404,13 +7503,13 @@
         <v>12</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:25">
@@ -6418,13 +7517,13 @@
         <v>13</v>
       </c>
       <c r="V19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:25">
@@ -6438,13 +7537,13 @@
         <v>66</v>
       </c>
       <c r="V20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:25">
@@ -6461,13 +7560,13 @@
         <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="X21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:25">
@@ -6492,9 +7591,6 @@
     <row r="24" spans="2:25">
       <c r="B24" t="s">
         <v>18</v>
-      </c>
-      <c r="V24" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -6508,1685 +7604,1692 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCCFEC3-C83D-450D-8BDA-CED8DCB20A59}">
   <dimension ref="B2:T86"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52:P86"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="7" t="s">
+    <row r="51" spans="2:20">
+      <c r="B51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="2:20">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="2:20">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="2:20">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="2:20">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="2:20">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="2:20">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-    </row>
-    <row r="27" spans="2:20">
-      <c r="B27" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
-      <c r="B28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="2:20">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="2:20">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="2:20">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="2:20">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="2:20">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="2:20">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
     </row>
     <row r="55" spans="2:20">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
     </row>
     <row r="68" spans="2:20">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
     </row>
     <row r="70" spans="2:20">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
     </row>
     <row r="71" spans="2:20">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
     </row>
     <row r="81" spans="2:20">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
     </row>
     <row r="82" spans="2:20">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
     </row>
     <row r="83" spans="2:20">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
     </row>
     <row r="84" spans="2:20">
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
     </row>
     <row r="85" spans="2:20">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="9"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q4:T24"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="B4:D24"/>
+    <mergeCell ref="E4:P24"/>
     <mergeCell ref="E52:P86"/>
     <mergeCell ref="B52:D86"/>
     <mergeCell ref="Q52:T86"/>
@@ -8196,18 +9299,22 @@
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="E51:P51"/>
     <mergeCell ref="Q51:T51"/>
-    <mergeCell ref="Q4:T24"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:P3"/>
-    <mergeCell ref="B4:D24"/>
-    <mergeCell ref="E4:P24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCD54C5-6A33-4C8B-B390-8C586A07F264}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/原型.xlsx
+++ b/原型.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issoh\Desktop\issoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A1B62-19A9-4F74-B4CF-09FFF8E1D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ADF6EF-1488-49D5-A295-7ABAC59459B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prototype" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="2" r:id="rId2"/>
     <sheet name="出勤管理process" sheetId="3" r:id="rId3"/>
     <sheet name="月次決算process" sheetId="4" r:id="rId4"/>
+    <sheet name="祝日同期process" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
   <si>
     <t xml:space="preserve"> dept_id        </t>
   </si>
@@ -438,12 +439,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t xml:space="preserve">accounts_id     </t>
-  </si>
-  <si>
-    <t>attendance_day</t>
-  </si>
-  <si>
     <t>total_hour</t>
   </si>
   <si>
@@ -490,9 +485,6 @@
   </si>
   <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>計算ID',</t>
   </si>
   <si>
     <t>社員ID',</t>
@@ -636,9 +628,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>調整可能なブレーク</t>
-  </si>
-  <si>
     <t>sys_employee</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -694,6 +683,79 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年有給休暇時間</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終業時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実働時間</t>
+  </si>
+  <si>
+    <t>祝日名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fiscal_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決算ID',</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fiscal_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attendance_days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定時同期祝日</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュクジツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -857,6 +919,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,9 +929,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -878,8 +940,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1966,76 +2028,6 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE92F32-D37C-4961-9E3D-93F726CD40D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="2943225"/>
-          <a:ext cx="12773025" cy="876300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln cmpd="dbl">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2948,6 +2940,117 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E70A54-D502-EDB0-EB56-0D497D73C978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10029825" y="923925"/>
+          <a:ext cx="4391025" cy="2971800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3547347-3C71-44CE-A21D-17A13F458C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="828675"/>
+          <a:ext cx="19050" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -6729,6 +6832,1833 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6996C7-DFC9-45B8-830E-472AA59335EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="1333501"/>
+          <a:ext cx="942975" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規タスク</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形: 角を丸くする 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71B2CBA2-CAD5-4BC5-BCB6-88C678C198EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990599" y="2143126"/>
+          <a:ext cx="1590675" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cron</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入力、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>をランニングに設定します</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F912EDA-25E2-4156-ACC3-8177B2D944DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="1057276"/>
+          <a:ext cx="1552575" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>当年月と社員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="フローチャート: 判断 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C903953-0F6C-4D98-9519-B95938F72C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="2828925"/>
+          <a:ext cx="2409825" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>勤務有無</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BE7BB7-2B5B-4742-9AF5-4B4BD2B8E3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="3800476"/>
+          <a:ext cx="1552575" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>新規勤務完成</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159233D2-3A7B-4CEB-8E2B-567291649A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2600325" y="1209676"/>
+          <a:ext cx="3276600" cy="1409699"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2913E8-9251-484F-A908-3508B62100B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="3400425"/>
+          <a:ext cx="9525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952ECB2B-E481-4FD0-8B90-98DFB58B027F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095999" y="3390899"/>
+          <a:ext cx="466794" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>無し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FBAE01-DC81-4A51-A8BB-4C359D7A9571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="4819651"/>
+          <a:ext cx="1552575" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>勤務</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>情報更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9953672-3E35-4C38-BFA0-3F59AE53F1D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7877175" y="3105151"/>
+          <a:ext cx="3686175" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D3C9CE-DDD5-461F-BD46-61D2ED9401BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029574" y="2790824"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F724ED6-36B7-4F20-B4B1-CE52EE0AE5E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="1685925"/>
+          <a:ext cx="0" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="フローチャート: 判断 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1210A7C9-F6CF-49BA-A2DD-B98D0354FC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="4162425"/>
+          <a:ext cx="1905000" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザ選択</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A18C65-84D2-4279-84E4-1B0510C6EED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3771899" y="2676525"/>
+          <a:ext cx="257176" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形: 角を丸くする 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C886B68-DE16-4EAF-BB4F-AE8C89DB762F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="5334001"/>
+          <a:ext cx="1552575" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>勤務情報更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D051BE-10C1-4505-8E67-23674E5EB22D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6843713" y="5124450"/>
+          <a:ext cx="0" cy="209551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="544804" cy="309372"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FB0CE8-7209-4751-B286-3A8BDE52116A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="4686300"/>
+          <a:ext cx="544804" cy="309372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: 角を丸くする 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535F681B-071C-433B-A8FD-AADE1180B144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="4305301"/>
+          <a:ext cx="1552575" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>何もしない</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381005</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>681039</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB166266-DF7A-4617-817D-4D53C0363149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6593685" y="-1583531"/>
+          <a:ext cx="904873" cy="10587034"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="857250" cy="309372"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB8999F-29E0-4951-88CF-E514DEB8CE8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="4191000"/>
+          <a:ext cx="857250" cy="309372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE48608B-23F4-481D-B9EB-CE387AD2C610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="2952751"/>
+          <a:ext cx="1552575" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ポップアップ表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20328B5F-EC2E-411F-BC5E-3622A77D6E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6643688" y="2419350"/>
+          <a:ext cx="4762" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A932BF7E-23A4-4DCB-B05A-86F86A0F36B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="4438650"/>
+          <a:ext cx="8896350" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6995,43 +8925,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J33"/>
+  <dimension ref="B3:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>134</v>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7044,18 +9000,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95861E5C-AF52-44C2-B266-8707F8776974}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:AE24"/>
+  <dimension ref="B2:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:31">
+    <row r="2" spans="2:25">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:31">
+    <row r="3" spans="2:25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
@@ -7063,10 +9019,10 @@
         <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
         <v>62</v>
@@ -7080,11 +9036,8 @@
       <c r="V3" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31">
+    </row>
+    <row r="4" spans="2:25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
@@ -7110,22 +9063,16 @@
         <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="X4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -7154,19 +9101,13 @@
         <v>21</v>
       </c>
       <c r="X5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -7198,36 +9139,27 @@
         <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="X6" t="s">
         <v>72</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
@@ -7239,33 +9171,27 @@
         <v>43</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -7277,22 +9203,16 @@
         <v>63</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -7306,16 +9226,16 @@
         <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -7329,16 +9249,16 @@
         <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -7356,16 +9276,16 @@
       </c>
       <c r="P11" s="1"/>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Y11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -7373,22 +9293,22 @@
         <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s">
         <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s">
         <v>72</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -7406,16 +9326,16 @@
       </c>
       <c r="P13" s="1"/>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -7429,16 +9349,16 @@
         <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -7452,50 +9372,59 @@
         <v>65</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M16" t="s">
         <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
       <c r="V17" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Y17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:25">
@@ -7503,13 +9432,13 @@
         <v>12</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:25">
@@ -7517,13 +9446,13 @@
         <v>13</v>
       </c>
       <c r="V19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="Y19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:25">
@@ -7537,13 +9466,13 @@
         <v>66</v>
       </c>
       <c r="V20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Y20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:25">
@@ -7560,13 +9489,13 @@
         <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X21" t="s">
         <v>72</v>
       </c>
       <c r="Y21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:25">
@@ -7582,6 +9511,15 @@
       <c r="N22" t="s">
         <v>52</v>
       </c>
+      <c r="V22" t="s">
+        <v>144</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="23" spans="2:25">
       <c r="B23" t="s">
@@ -7591,12 +9529,61 @@
     <row r="24" spans="2:25">
       <c r="B24" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25">
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25">
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25">
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25">
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25">
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7604,1683 +9591,1694 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCCFEC3-C83D-450D-8BDA-CED8DCB20A59}">
   <dimension ref="B2:T86"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:20">
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
+      <c r="B28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
+      <c r="B51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
     </row>
     <row r="54" spans="2:20">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
     </row>
     <row r="55" spans="2:20">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
     </row>
     <row r="68" spans="2:20">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
     </row>
     <row r="70" spans="2:20">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
     </row>
     <row r="71" spans="2:20">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
     </row>
     <row r="81" spans="2:20">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
     </row>
     <row r="82" spans="2:20">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
     </row>
     <row r="83" spans="2:20">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
     </row>
     <row r="84" spans="2:20">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
     </row>
     <row r="85" spans="2:20">
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E52:P86"/>
+    <mergeCell ref="B52:D86"/>
+    <mergeCell ref="Q52:T86"/>
+    <mergeCell ref="B29:D47"/>
+    <mergeCell ref="E29:P47"/>
+    <mergeCell ref="Q29:T47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:P51"/>
+    <mergeCell ref="Q51:T51"/>
     <mergeCell ref="Q4:T24"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="B28:D28"/>
@@ -9290,15 +11288,6 @@
     <mergeCell ref="E3:P3"/>
     <mergeCell ref="B4:D24"/>
     <mergeCell ref="E4:P24"/>
-    <mergeCell ref="E52:P86"/>
-    <mergeCell ref="B52:D86"/>
-    <mergeCell ref="Q52:T86"/>
-    <mergeCell ref="B29:D47"/>
-    <mergeCell ref="E29:P47"/>
-    <mergeCell ref="Q29:T47"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:P51"/>
-    <mergeCell ref="Q51:T51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9317,4 +11306,502 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF72A2-6CA8-4492-A928-47C3DB2C2DB0}">
+  <dimension ref="B2:T24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:20">
+      <c r="B2" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="B3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E4:P24"/>
+    <mergeCell ref="Q4:T24"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:P3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="B4:D24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>